--- a/ressources/Matrices CDC V3.xlsx
+++ b/ressources/Matrices CDC V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FE05FBA98344F0074D82EA814DFF54DDB2F9A3C2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{66110D7A-0F9C-440D-8327-18B494B66C05}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD8E6F-BB7D-4C8F-B7FF-DFFC6D6CFF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignation des droits" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
   <si>
     <t>Catégories et fonctionnalités</t>
   </si>
@@ -284,13 +284,16 @@
   </si>
   <si>
     <t>Informer le système de l'avancement de la candidature step 5</t>
+  </si>
+  <si>
+    <t>Informer le système de l'avancement de la candidature step 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,24 +950,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6.6" customHeight="1"/>
-    <row r="2" spans="2:8" ht="27" customHeight="1">
+    <row r="1" spans="2:8" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -977,7 +980,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="2:8" ht="29.45" customHeight="1">
+    <row r="3" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24"/>
@@ -994,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
       <c r="C6" s="9" t="s">
         <v>14</v>
@@ -1061,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>16</v>
@@ -1082,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>18</v>
@@ -1103,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>20</v>
@@ -1124,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>22</v>
@@ -1145,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
       <c r="C12" s="9" t="s">
         <v>27</v>
@@ -1189,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="9" t="s">
         <v>30</v>
@@ -1210,7 +1213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>32</v>
@@ -1231,7 +1234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>34</v>
@@ -1252,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="28"/>
       <c r="C17" s="9" t="s">
         <v>39</v>
@@ -1296,7 +1299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>41</v>
@@ -1317,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>43</v>
@@ -1338,7 +1341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
         <v>45</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
         <v>48</v>
@@ -1382,7 +1385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="9" t="s">
         <v>50</v>
@@ -1403,7 +1406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="C23" s="9" t="s">
         <v>52</v>
@@ -1424,7 +1427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>54</v>
@@ -1445,7 +1448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="28" t="s">
         <v>56</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>59</v>
@@ -1489,7 +1492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>61</v>
@@ -1510,7 +1513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>63</v>
@@ -1531,7 +1534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>65</v>
@@ -1552,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="28" t="s">
         <v>67</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="9" t="s">
         <v>70</v>
@@ -1596,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="28"/>
       <c r="C32" s="9" t="s">
         <v>72</v>
@@ -1617,7 +1620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
       <c r="C33" s="9" t="s">
         <v>74</v>
@@ -1638,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
       <c r="C34" s="9" t="s">
         <v>76</v>
@@ -1659,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
       <c r="C35" s="9" t="s">
         <v>78</v>
@@ -1677,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -1701,34 +1704,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
       <c r="C37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
       <c r="C38" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>9</v>
@@ -1737,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>29</v>
@@ -1966,13 +1969,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14ED224-E43F-40CC-AD57-4269D403B14C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14ED224-E43F-40CC-AD57-4269D403B14C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A4FA-3848-40BB-B9DB-46BD49D39AE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A4FA-3848-40BB-B9DB-46BD49D39AE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B04B9E-F3E7-4762-9091-8C1943855BD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B04B9E-F3E7-4762-9091-8C1943855BD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="88f20bcf-da08-485d-9eb4-e9727cd3abb4"/>
+    <ds:schemaRef ds:uri="b8f2e626-f078-4209-836c-b99ed175e4aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ressources/Matrices CDC V3.xlsx
+++ b/ressources/Matrices CDC V3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD8E6F-BB7D-4C8F-B7FF-DFFC6D6CFF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B0777-72B3-4BE8-B528-BF2443FD8283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="2940" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignation des droits" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,18 +1763,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,18 +1969,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14ED224-E43F-40CC-AD57-4269D403B14C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A4FA-3848-40BB-B9DB-46BD49D39AE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41E9A4FA-3848-40BB-B9DB-46BD49D39AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14ED224-E43F-40CC-AD57-4269D403B14C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
